--- a/test/reporte_inscripciones_evento_3.xlsx
+++ b/test/reporte_inscripciones_evento_3.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,60 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Chapare</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fernandez Viscarra</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caterina Liz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unidad Educativa Liceo de Señoritas María Gutiérrez</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chuquisaca</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Angulo Perez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unidad Educativa Santa María Magdalena Postel</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Montero</t>
         </is>
       </c>
     </row>
@@ -494,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +617,87 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Machaca Cabrera</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unidad Educativa Virgen de Copacabana Miraflores</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fernandez Viscarra</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caterina Liz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unidad Educativa Liceo de Señoritas María Gutiérrez</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chuquisaca</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Angulo Perez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unidad Educativa Santa María Magdalena Postel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Montero</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
